--- a/testdatas/api_cases.xlsx
+++ b/testdatas/api_cases.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
-    <sheet name="登录" sheetId="3" r:id="rId2"/>
+    <sheet name="登陆" sheetId="3" r:id="rId2"/>
     <sheet name="充值" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="加标" sheetId="5" r:id="rId4"/>
+    <sheet name="审核" sheetId="7" r:id="rId5"/>
+    <sheet name="投资" sheetId="6" r:id="rId6"/>
+    <sheet name="业务流" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -55,7 +58,7 @@
     <t>{"code":0,"msg":"OK"}</t>
   </si>
   <si>
-    <t>select * from futureloan.member where mobile_phone=#phone#;</t>
+    <t>{"check_type":"count","check_sql":"select * from futureloan.member where mobile_phone=#phone#","expected":{"count":1}}</t>
   </si>
   <si>
     <t>成功-不带用户名</t>
@@ -211,10 +214,124 @@
     <t>{"code":0,"msg":"OK","leave_amount":float(#money#)+2000}</t>
   </si>
   <si>
-    <t>{"check_type":"value","check_sql":"select leave_amount from member where id=#member_id#;","expected":{"leave_amount":float(#money#)+2000}}</t>
+    <t>{"check_type":"value","check_sql":"select leave_amount from member where id=#member_id#","expected":{"leave_amount":float(#money#)+2000}}</t>
   </si>
   <si>
     <t>{"member_id":"#member_id#","amount":2000.0}</t>
+  </si>
+  <si>
+    <t>{"member_id":"$..id","token":"$..token"}</t>
+  </si>
+  <si>
+    <t>加标成功</t>
+  </si>
+  <si>
+    <t>loan/add</t>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","title":"py33学习","amount":2000000,"loan_rate":10.0,"loan_term":6,"loan_date_type":1,"bidding_days":10}</t>
+  </si>
+  <si>
+    <t>{"code": 0, "msg": "OK","data":True}</t>
+  </si>
+  <si>
+    <t>普通用户-登陆</t>
+  </si>
+  <si>
+    <t>{"loan_id":"$..id"}</t>
+  </si>
+  <si>
+    <t>管理员-登陆</t>
+  </si>
+  <si>
+    <t>管理员-审核</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>loan/audit</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"approved_or_not":true}</t>
+  </si>
+  <si>
+    <t>{'code': 0, 'msg': 'OK'}</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"approved_or_not":false}</t>
+  </si>
+  <si>
+    <t>普通用户-审核</t>
+  </si>
+  <si>
+    <t>pre_sql</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"15500000001","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>审核</t>
+  </si>
+  <si>
+    <t>普通用户-登录</t>
+  </si>
+  <si>
+    <t>普通用户-充值</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>member/invest</t>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","loan_id":#loan_id#,"amount":2000.0}</t>
+  </si>
+  <si>
+    <t>注册普通用户</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#phone#","pwd":"123456789","type":1,"reg_name":"美丽可爱的小简"}</t>
+  </si>
+  <si>
+    <t>{"user":"$..mobile_phone"}</t>
+  </si>
+  <si>
+    <t>登陆普通用户</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#user#","pwd":"123456789"}</t>
+  </si>
+  <si>
+    <t>充值普通用户</t>
+  </si>
+  <si>
+    <t>普通用户加标</t>
+  </si>
+  <si>
+    <t>注册管理员</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#phone#","pwd":"123456789","type":0,"reg_name":"美丽可爱的管理员"}</t>
+  </si>
+  <si>
+    <t>{"admin":"$..mobile_phone"}</t>
+  </si>
+  <si>
+    <t>管理员登陆</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#admin#","pwd":"123456789"}</t>
+  </si>
+  <si>
+    <t>{"token":"$..token"}</t>
+  </si>
+  <si>
+    <t>管理员审核标</t>
+  </si>
+  <si>
+    <t>普通用户投资</t>
   </si>
 </sst>
 </file>
@@ -223,9 +340,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -249,7 +366,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,9 +379,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,14 +402,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,69 +418,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,6 +439,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -391,6 +500,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -413,187 +530,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,6 +750,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -659,41 +791,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,6 +832,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -738,10 +855,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,133 +867,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1250,8 +1367,8 @@
   <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1262,7 +1379,7 @@
     <col min="4" max="4" width="26.4416666666667" customWidth="1"/>
     <col min="5" max="5" width="58" customWidth="1"/>
     <col min="6" max="6" width="40.5583333333333" customWidth="1"/>
-    <col min="7" max="7" width="69.5583333333333" customWidth="1"/>
+    <col min="7" max="7" width="139.666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:7">
@@ -1587,7 +1704,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1595,8 +1712,8 @@
     <col min="2" max="2" width="29.1083333333333" customWidth="1"/>
     <col min="4" max="4" width="29.4416666666667" customWidth="1"/>
     <col min="5" max="5" width="55.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="27.8916666666667" customWidth="1"/>
-    <col min="7" max="7" width="37.225" customWidth="1"/>
+    <col min="6" max="6" width="15.5583333333333" customWidth="1"/>
+    <col min="7" max="7" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:7">
@@ -1740,8 +1857,8 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1750,7 +1867,7 @@
     <col min="3" max="3" width="10.775" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.225" customWidth="1"/>
     <col min="5" max="5" width="48.225" customWidth="1"/>
-    <col min="6" max="6" width="28.775" customWidth="1"/>
+    <col min="6" max="6" width="33.4416666666667" customWidth="1"/>
     <col min="7" max="7" width="63.8916666666667" customWidth="1"/>
     <col min="8" max="8" width="140.891666666667" customWidth="1"/>
   </cols>
@@ -1859,14 +1976,651 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="3" max="3" width="13.1083333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.8916666666667" customWidth="1"/>
+    <col min="5" max="5" width="70.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="29.225" customWidth="1"/>
+    <col min="7" max="7" width="37.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="55.775" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="40" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" ht="61" customHeight="1" spans="1:7">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="16.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.225" customWidth="1"/>
+    <col min="5" max="5" width="80.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="28.8916666666667" customWidth="1"/>
+    <col min="7" max="7" width="33.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="28.775" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="40" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" ht="43" customHeight="1" spans="1:6">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" ht="43" customHeight="1" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="1:7">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="43" customHeight="1" spans="1:6">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="27" customHeight="1" spans="1:7">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="8.89166666666667" style="1"/>
+    <col min="2" max="2" width="15.225" customWidth="1"/>
+    <col min="4" max="4" width="14.775" customWidth="1"/>
+    <col min="5" max="5" width="32.5583333333333" customWidth="1"/>
+    <col min="6" max="6" width="89.225" customWidth="1"/>
+    <col min="7" max="7" width="41.775" customWidth="1"/>
+    <col min="8" max="8" width="13.225" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="32" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" ht="40" customHeight="1" spans="1:6">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9.44166666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.1083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="90.5583333333333" customWidth="1"/>
+    <col min="6" max="6" width="50" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="31.8916666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" ht="19" customHeight="1" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" ht="36" customHeight="1" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" ht="16" customHeight="1" spans="1:5">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/testdatas/api_cases.xlsx
+++ b/testdatas/api_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="19440" windowHeight="10164" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
     <t>{"member_id":"#member_id#","title":"py33学习","amount":2000000,"loan_rate":10.0,"loan_term":6,"loan_date_type":1,"bidding_days":10}</t>
   </si>
   <si>
-    <t>{"code": 0, "msg": "OK","data":True}</t>
+    <t>{'code': 0, 'msg': 'OK',"data":True}</t>
   </si>
   <si>
     <t>普通用户-登陆</t>
@@ -366,7 +366,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,35 +374,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,8 +388,36 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,41 +438,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,6 +462,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -502,10 +478,34 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -530,13 +530,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,19 +650,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,145 +710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,17 +750,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,20 +802,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,15 +814,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,17 +833,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,10 +855,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -867,7 +867,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -876,124 +876,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1371,18 +1371,18 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.89166666666667" style="1"/>
-    <col min="2" max="2" width="19.225" customWidth="1"/>
-    <col min="3" max="3" width="8.55833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="19.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="8.55555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="58" customWidth="1"/>
-    <col min="6" max="6" width="40.5583333333333" customWidth="1"/>
+    <col min="6" max="6" width="40.5555555555556" customWidth="1"/>
     <col min="7" max="7" width="139.666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" ht="15.6" spans="1:6">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
+    <row r="5" ht="15.6" spans="1:6">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
+    <row r="6" ht="15.6" spans="1:6">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
+    <row r="7" ht="15.6" spans="1:6">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="8" s="5" customFormat="1" ht="15.6" spans="1:6">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" s="6" customFormat="1" ht="16.5" spans="1:6">
+    <row r="9" s="6" customFormat="1" ht="15.6" spans="1:6">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:6">
+    <row r="10" ht="15.6" spans="1:6">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:6">
+    <row r="11" ht="15.6" spans="1:6">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:6">
+    <row r="12" ht="15.6" spans="1:6">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:6">
+    <row r="13" ht="15.6" spans="1:6">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:6">
+    <row r="14" ht="15.6" spans="1:6">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
+    <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1707,16 +1707,16 @@
       <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="29.1083333333333" customWidth="1"/>
-    <col min="4" max="4" width="29.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="29.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="29.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="55.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="15.5583333333333" customWidth="1"/>
+    <col min="6" max="6" width="15.5555555555556" customWidth="1"/>
     <col min="7" max="7" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" ht="15.6" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" ht="15.6" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" ht="15.6" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" ht="15.6" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" ht="15.6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" ht="15.6" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1861,18 +1861,18 @@
       <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.775" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.225" customWidth="1"/>
-    <col min="5" max="5" width="48.225" customWidth="1"/>
-    <col min="6" max="6" width="33.4416666666667" customWidth="1"/>
-    <col min="7" max="7" width="63.8916666666667" customWidth="1"/>
-    <col min="8" max="8" width="140.891666666667" customWidth="1"/>
+    <col min="3" max="3" width="10.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="48.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="33.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="63.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="140.888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" ht="15.6" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1978,21 +1978,21 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="13.1083333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.8916666666667" customWidth="1"/>
+    <col min="3" max="3" width="13.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="13.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="70.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="29.225" customWidth="1"/>
-    <col min="7" max="7" width="37.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="55.775" customWidth="1"/>
+    <col min="6" max="6" width="29.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="37.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="55.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" ht="15.6" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2073,17 +2073,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="16.5583333333333" customWidth="1"/>
-    <col min="4" max="4" width="17.225" customWidth="1"/>
+    <col min="2" max="2" width="16.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="17.2222222222222" customWidth="1"/>
     <col min="5" max="5" width="80.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="28.8916666666667" customWidth="1"/>
-    <col min="7" max="7" width="33.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="28.775" customWidth="1"/>
+    <col min="6" max="6" width="28.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="33.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="28.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" ht="15.6" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2253,19 +2253,19 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="8.89166666666667" style="1"/>
-    <col min="2" max="2" width="15.225" customWidth="1"/>
-    <col min="4" max="4" width="14.775" customWidth="1"/>
-    <col min="5" max="5" width="32.5583333333333" customWidth="1"/>
-    <col min="6" max="6" width="89.225" customWidth="1"/>
-    <col min="7" max="7" width="41.775" customWidth="1"/>
-    <col min="8" max="8" width="13.225" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="15.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="32.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="89.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="41.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="13.2222222222222" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:9">
+    <row r="1" ht="15.6" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2407,23 +2407,23 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.44166666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.1083333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.4416666666667" customWidth="1"/>
-    <col min="5" max="5" width="90.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="9.44444444444444" customWidth="1"/>
+    <col min="2" max="2" width="14.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="11.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="90.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="50" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="31.8916666666667" customWidth="1"/>
+    <col min="8" max="8" width="31.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" ht="15.6" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>

--- a/testdatas/api_cases.xlsx
+++ b/testdatas/api_cases.xlsx
@@ -506,7 +506,7 @@
     <t>{"$..code":0,"$..msg":"OK"}</t>
   </si>
   <si>
-    <t>{"check_type":"value","check_sql":"select leave_amount from member where id=#member_id#","expected":{"leave_amount":float(#money#)-2000}}</t>
+    <t>[{"check_type":"value","check_sql":"select leave_amount from member where id=#member_id#","expected":{"leave_amount":float(#money#)-2000}},{"check_type":"value","check_sql":"select amount from loan where id=#loan_id#","expected":{"amount":float(#loan_amount#)-2000}}]</t>
   </si>
   <si>
     <t>用例4-投资人-投资99</t>
@@ -2165,7 +2165,7 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -19427,8 +19427,8 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
